--- a/crime_sentiment_analysis.xlsx
+++ b/crime_sentiment_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="314">
   <si>
     <t>Date</t>
   </si>
@@ -67,12 +67,15 @@
     <t>April 27, 2020</t>
   </si>
   <si>
-    <t>February 24, 2020</t>
-  </si>
-  <si>
     <t>January 27, 2020</t>
   </si>
   <si>
+    <t>September 23, 2019</t>
+  </si>
+  <si>
+    <t>July 22, 2019</t>
+  </si>
+  <si>
     <t>June 24, 2019</t>
   </si>
   <si>
@@ -94,6 +97,9 @@
     <t>October 29, 2018</t>
   </si>
   <si>
+    <t>July 23, 2018</t>
+  </si>
+  <si>
     <t>May 28, 2018</t>
   </si>
   <si>
@@ -151,7 +157,7 @@
     <t>April 25, 2016</t>
   </si>
   <si>
-    <t>March 21, 2016</t>
+    <t>January 25, 2016</t>
   </si>
   <si>
     <t>October 26, 2015</t>
@@ -181,484 +187,775 @@
     <t>January 26, 2015</t>
   </si>
   <si>
-    <t>As a part of the agreed terms, the  victim was paid  an amount in restitution and the accused —both 19 years  of age —also went through cultural/race training with Dr. Rev erend   Anthony Bailey.</t>
-  </si>
-  <si>
-    <t>The tradition of the Canadian Police and Peace Officer s’ Memorial actually  started following the death of Ottawa Police Constable David Kirkwood i n  1977.</t>
-  </si>
-  <si>
-    <t>Eric Czapnik     We also recognize and remember all  OPS members who have tragically  taken their own lives .</t>
-  </si>
-  <si>
-    <t>Including Constable Thomas Roberts death  on this  day which is the 2 -year anniversary of his passing .</t>
-  </si>
-  <si>
-    <t>This month, Ms. Hanadi Mohammed, was stabbed and killed – her daughter was seriously  wounded.</t>
-  </si>
-  <si>
-    <t>With the direct assistance of the public, our officers were able to quickly locate and  arrest the suspect, Ms Mohammed’s fo rmer spouse.</t>
-  </si>
-  <si>
-    <t>Thank you for always being there.”         MANSLAUGHTER  CHARGE      In May of 2020 our Homicide Unit began investigating the death of Chloe Guan -Branch, a five  year old.</t>
-  </si>
-  <si>
-    <t>Immediately following my update, the Board will receive a full presentation from  Inspector  Carl Cartright with additional details on the crime analysis and the operational  plan.</t>
-  </si>
-  <si>
-    <t>The man was arrested and charged, and the child taken to CHEO where they  discovered he had been given by marijuana and an unknown drug.</t>
-  </si>
-  <si>
-    <t>Already this sprin g, in conjunction with Canada  Road Safety Week, they have issued hundreds of charges, including more than 1270  Highway Traffic Act offences and 35 for stunt driving.</t>
-  </si>
-  <si>
-    <t>On Friday morning, 64 -year-old Carl Reinboth was stabbed to death on Somerset St.  West just blocks from the Eccles St. health facility where he worked as a harm reduction  worker.</t>
-  </si>
-  <si>
-    <t>OPS C onstable  Dave McCulloch made the  actual arrest – the combined efforts of the police and the community likely prevented  more crimes  and victimization .</t>
-  </si>
-  <si>
-    <t>Not sure if you recall but a while back you, myself, Dawn and Inspector Zackrias had  pho ac ross the street from there, back when you both were involved in the injection site  liaison work.</t>
-  </si>
-  <si>
-    <t>6     A second investigation related to hateful graffiti targeting a young woman at the  University of Ottawa resulted in a resolution that was satisfying to the victim.</t>
-  </si>
-  <si>
-    <t>The City of Ottawa and the OPS are fortunate to have one of, if not the best, Hate  Crime investigators in Canada, Detective Ali Toghrol.</t>
-  </si>
-  <si>
-    <t>Earlier this month, there were increased community complaints of illegal drug dealing  which was having very  negative impact on the community around Frobisher Lane.</t>
-  </si>
-  <si>
-    <t>CHAUVIN CONVICITON      I will conclude my presentation with some reflections on the convictions registered last  week in the criminal trial of former p olice officer Derek Chauvin.</t>
-  </si>
-  <si>
-    <t>We have also all been deeply affected by  George Floyd’s murder  and its global and local social impacts.</t>
-  </si>
-  <si>
-    <t>We stand with all local and international  communities who have been impacted by the  tragic events surrounding George Floyd which  shone a spotlight on  the historical and  current reality of systemic racism in policin g, the  justice system  and society .</t>
-  </si>
-  <si>
-    <t>Every person, organization and institution can and should do more to help prevent such  human tragedies  as the murder of George Floyd .</t>
-  </si>
-  <si>
-    <t>Over the weekend, I was saddened to hear that even our Mayor was victimized in a  hate incident , with graffiti outside his home.</t>
-  </si>
-  <si>
-    <t>The Commendations were for an event which occurred last year when Eric and Wayne  were on patrol and came across a serious motor  vehicle accident  where three people  were trapped inside  a burning vehicle.</t>
-  </si>
-  <si>
-    <t>At the time, I was on patrol with Wayne, E ric and the rest of t heir Carlington NRT  when  we investigated a male who was involved in a  criminal code driving offence.</t>
-  </si>
-  <si>
-    <t>Just over a year later, Eric and Wayne learned that the mother  had tragically passed  away from a drug overdose leaving the father alone to look after the young kids.</t>
-  </si>
-  <si>
-    <t>Eric 5   and Wayne co uld see that this was a potentially critical situation so they took immediate  action to assist the family.</t>
-  </si>
-  <si>
-    <t>For me this second event involving Wayne and Eric was even more impactful than their  life-saving efforts during the car accident.</t>
-  </si>
-  <si>
-    <t>Shortly I after , I was made aware of an emergency response police operation that had  just concluded a short distanc e from the station where I had met with Eric and Wayne .</t>
-  </si>
-  <si>
-    <t>Later at home, I got myself caught up on the news of the abduction, rape and murde r of  a 30-year-old woman, Sara Everard , in London England .</t>
-  </si>
-  <si>
-    <t>There was a patient having a mental health crisis and two of your officers,  Constables Eric Lepage and Feisel Bila Houssein  were instrumental in the  care of this patient.</t>
-  </si>
-  <si>
-    <t>We will also complete and evaluate the pilot project involving  Ruben Thomlinson (a third-party pro vided for intake and investigations for  all types of harassment , including sexual harassment ).</t>
-  </si>
-  <si>
-    <t>This pilot  evaluation will be part of the larger report and recommendations stemming from the Board/Service project to address “Workplace Sexual Violence &amp;  Harassment .”   Mindset Shi ft  Please know that t here is a growing recognition across policing in Canada  and within the OPS that the traditional model of policing needs to change  and evolve.</t>
-  </si>
-  <si>
-    <t>Constable B runo Gendron     On November 12 died in an off -duty medical event.</t>
-  </si>
-  <si>
-    <t>We were equally saddened to learn of the  passing of former OPS Youth Officer Guy Giroux.</t>
-  </si>
-  <si>
-    <t>We know that no verdict can  change the tragedy that happened four years ago when Mr. Abdirahman  Abdi lost his life.</t>
-  </si>
-  <si>
-    <t>Although the CEC has only been established for 18 months, in this brief  time they have already provided adv ice and guidance tha t has led to  changes in our response to Hate incidents, changes to our outreach and  recruitment, the development and oversight of our EDI action plan, work on  our organizational culture and response to systemic racism, as well as our  planning and response to the recent Montsion Trial verdict.</t>
-  </si>
-  <si>
-    <t>7   Our members raised thousands of dollars for a woman who had been the  victim of a knife attack by her partner, and her children.</t>
-  </si>
-  <si>
-    <t>NRT members , Constables Eric Douglas  and Wayne Clayton , were first to  arrive on the scene of a motor vehicle collision, with one of the vehicles on  fire.</t>
-  </si>
-  <si>
-    <t>Douglas  stayed with the other passenger trapped in the front  seat, administering first aid, until Fire Services could arrive to extract her.</t>
-  </si>
-  <si>
-    <t>Highest number of crime guns seized in 5 years   Constable Andrew Bowen responded to a call about a teenager who had  been reported to have overdosed.</t>
-  </si>
-  <si>
-    <t>6   Four days later, on September 19th, OPS officers responded to a call for a  woman w ho was overdosing on suspected F entanyl.</t>
-  </si>
-  <si>
-    <t>During the conversation they learned that all three boys had their bikes stolen the month befor e. The  children showed them photos of their stolen bikes, and one of the officers immediately recognized the  bikes.</t>
-  </si>
-  <si>
-    <t>Courage under pressure   This past month a woman lost control of her car and it ended up in the Ottawa river near the Thomas  Dolan Parkway.</t>
-  </si>
-  <si>
-    <t>Defunding/ Disbanding Police   Since the tragic death of George Floyd in Minneapolis, it’s created a whole raf t of social media posts and  hashtags.</t>
-  </si>
-  <si>
-    <t>Stevenson, recently murdered in the line  of duty in Nova Scotia.</t>
-  </si>
-  <si>
-    <t>Memes   A disgusting, racist meme has been circulating amongst a number of  members.</t>
-  </si>
-  <si>
-    <t>10   Challenges &amp; Opportunities Ahead    Indigenous Protests  (Wet’ suwet’en Demo)    Coronavirus  (COVID 19)    Gilmour Case  (Shootings &amp; Street Violence)    Hate Crime Case – Jewish Memorial   (Suspect outstanding)    Collective Bargaining    Sleep Initiative with OPA     Thank you.</t>
-  </si>
-  <si>
-    <t>The top fiv e service requests  were: Collisions; Disturbances; Disputes; Unwanted  Persons; and Suspicious Incidents.</t>
-  </si>
-  <si>
-    <t>The volume of non -violent crime reports also  increased by 10%, with thefts under $5,000 driving  this result.</t>
-  </si>
-  <si>
-    <t>Keith Martin was dispatched  to a call about a missing elderly man.</t>
-  </si>
-  <si>
-    <t>Total shootings in 2018: 78   YTD shootings in 2018: 41   Total shootings in 2019: 26      2   Homicide   On Friday, May 24, 2019, 27 -year-old  Kenneth Frampton  was arrested and  charged with first degr ee murder for the  killing of 31 -year-old Kenneth Ammaklak   on May 14, 2019 at 251 Donald St.</t>
-  </si>
-  <si>
-    <t>Constable Scarecrow is a life -size, metal  cut-out of a police officer, pointing a radar  gun.</t>
-  </si>
-  <si>
-    <t>Reichert had the difficult  decision to shoot a suspect after the suspect  shot two people.</t>
-  </si>
-  <si>
-    <t>Hate Crimes Unit  8   I’ll end  this update with a discussion around  how we investigate Hate Crimes at the  Ottawa Police.</t>
-  </si>
-  <si>
-    <t>In total 78 Provincial Offence Notices and Liquor Licence Act offences were issued.</t>
-  </si>
-  <si>
-    <t>Last year Crime Stoppers recovered almost $500,000 worth of narcotics, assisted  with 146 criminal charges, and helped us to clear 33 cases.</t>
-  </si>
-  <si>
-    <t>Homicide   Two weeks ago our missing person section began an investigation into the  disappearance of Susan Kuplu.</t>
-  </si>
-  <si>
-    <t>Community Policing Problem Address   This evening we have a pre sentation by Deputy Chief Bell and his team on  improvements we are making to community policing.</t>
-  </si>
-  <si>
-    <t>As of January  1st, a first offence will yield a three -day licence suspension, three demerit points, and a  fine of up to $1,000.</t>
-  </si>
-  <si>
-    <t>If you are caught three times, you will lose your l icence for 30  days, lose six demerit points, and face a fine of up to $3,000.</t>
-  </si>
-  <si>
-    <t>However, the location and  timing is particularly concerning and our Major Crime detectives are seeking susp ects.</t>
-  </si>
-  <si>
-    <t>This month Provincial Offences Act warrants were executed at four illicit cannabis  storefronts.</t>
-  </si>
-  <si>
-    <t>Products and proceeds were seized and 12  people were charged under  the new provincial Cannabis Control Act.</t>
-  </si>
-  <si>
-    <t>In August, Constables  Michelle Berkvens and James Killeen responded to a  situation where a refugee family that had travelled from Montreal to Ottawa but had no  where to stay and very limited funds.</t>
-  </si>
-  <si>
-    <t>Homicides   In the past five days  we have seen two serious and disturbing homicides in our city.</t>
-  </si>
-  <si>
-    <t>Major Crime is currently seeking an individual in relation to this case.</t>
-  </si>
-  <si>
-    <t>In partnership with Ottawa Bylaw, the  Alcohol and Gaming Commission of Ontario and OC Transpo, we are conducti ng  community safety initiatives to disorderly behaviour, like Liquor Licence Act  offences,  criminal activity and aggressive panhandling.</t>
-  </si>
-  <si>
-    <t>Fentanyl   On May 9th, the Str eet Crime Unit executed a search warrant and charged an adult male  after an investigation into drug trafficking activity.</t>
-  </si>
-  <si>
-    <t>In relation to  this investi gation,  a fifth man was arrested and numerous warrants were executed  leading to two more loaded handguns being seized along with Fentanyl and other  drugs.</t>
-  </si>
-  <si>
-    <t>One of the men was wanted for a shooting at  the Algonquin Campus last  summer, while another arrested was also facing numerous charges from Project  Sabotage.</t>
-  </si>
-  <si>
-    <t>I want to thank a passerby Mr. Raposo who came to the  aid of one of the officers who  was injured during a foot chase to arrest some of the suspects.</t>
-  </si>
-  <si>
-    <t>Constable Martin Corbeil located hockey bags at the end of a remote country road containing the stolen goods, and K9 Constables Jamie Desormeaux  and Ian  Beattie, with the help of K9 partner Frigo, later located the suspect and arr ested  him.</t>
-  </si>
-  <si>
-    <t>In one traffic stop they  seized 350 grams of marijuana and cash which led to posse ssion for the purpose of  trafficking were laid.</t>
-  </si>
-  <si>
-    <t>Crime Prevention Ottawa unveiled its update to the Ottawa’s Refreshed Street Violence  and Gang Strategy at the start of December.</t>
-  </si>
-  <si>
-    <t>Quick Thinking/Tourniquet Saves  Gunshot Victim’s Life   When Constables F . Roberge, P . Wiseman and I . Kemp responded to a call of shots  fired on Concord St. North  in the early hours of September 30 th, they were not certain  what to expect.</t>
-  </si>
-  <si>
-    <t>In 2015, 17 -year-old  Issaiah Clachar  was stabbed to death on Jasmine Cr.</t>
-  </si>
-  <si>
-    <t>Guilty Plea in Homicide   Last we ek we also saw another man plead guilty to second degree murder in relation to  the May 2016 homicide of Lonnie Leafloor.</t>
-  </si>
-  <si>
-    <t>This latest homicide has kept our major crime unit busy however, this weekend  investigators also made an arrest i n the homicide of Devon Labelle  who was  stabbed to death on Montreal Rd.</t>
-  </si>
-  <si>
-    <t>Paul McIntyre was at a west end mall when he witnessed two men fighting.</t>
-  </si>
-  <si>
-    <t>Project Flu rry  During the months of April to June 2017, the Ottawa Police Service Street Crime Unit  conducted Project Flurry, targeting street level drug dealers in the Byward Market and  downtown core.</t>
-  </si>
-  <si>
-    <t>Defib Call   On the afternoon of Jun e 4th, 911 received a call about a man without vital signs in the  Carlington area.</t>
-  </si>
-  <si>
-    <t>Officers respond to woman in distress   Earlier this month, Constables Katherine Ste.</t>
-  </si>
-  <si>
-    <t>Marie, Stephanie McConnell and Cory  Chipman responded t o a report of a woman threatening self -harm.</t>
-  </si>
-  <si>
-    <t>Those officers involved in the case never let it go, and exemplified the teamwork  required to see a guilty verdi ct.  As well, in the same week, we saw a guilty verdict in the  homicide of Michael Wassill in 2013.</t>
-  </si>
-  <si>
-    <t>The Ottawa  Police  Service currently has 69 matters that are being investigated under the Police  Services Act  or the Criminal Code  by our service, the SIU or the OIPRD  or outside  police services .</t>
-  </si>
-  <si>
-    <t>Under Section 89 (1) of  the Police Services Act , the Chief has the authority to suspend  a sworn member with pay.</t>
-  </si>
-  <si>
-    <t>In April, the Guns and Gangs Unit arrested more than a dozen people  after it executed  a search warrant at a Centretown home .</t>
-  </si>
-  <si>
-    <t>Arrest in Elmira Drive Murder   I would like to highlight the hard work done by our Major Crime investigators that led to  charges agai nst Brayton Kennedy in relation to the September 2016 shooting death of  Jacob Thompson.</t>
-  </si>
-  <si>
-    <t>Kennedy was arrested earlier this month and charged with second  degree murder.</t>
-  </si>
-  <si>
-    <t>Officers Rescue Woman   In early April, Constables Marc Desjardins and Jason Murphy responded to a call from a  woman in distress, threatening to harm herself.</t>
-  </si>
-  <si>
-    <t>Steve Brown had after shots were fired in a downtown  neighbourhood on April 13th.</t>
-  </si>
-  <si>
-    <t>Sweet has spent 31  years with this police and has been charged with the Criminal Investigations Unit.</t>
-  </si>
-  <si>
-    <t>Section 11 investigation   Earlier this month, charges were laid by the Province’s Special Investigations Unit  against a member of our service in relation to the death of Abdirahman Abdi.</t>
-  </si>
-  <si>
-    <t>Pippy was off duty but saw the girl in distress and used her training to step in and dislo dge a piece of food from the  girl's throat.</t>
-  </si>
-  <si>
-    <t>On Sunday,  two officers confronted a man  appearing ready to smoke crack on the 100 block of George St.</t>
-  </si>
-  <si>
-    <t>Regulated Interactions   As the Board is aware, in December, I had te mporarily delayed the use of Regulated  Interactions – formerly known as Street Checks - until all implementation steps had  been completed.</t>
-  </si>
-  <si>
-    <t>Guilty Murder Verdict   On February 17, Devontay Hackett was found guilty of 2nd degree murder for killing  Brandon Volpi, in June of 2014.</t>
-  </si>
-  <si>
-    <t>However, this past Friday, the Board received a letter from Gerry McNeilly,  Director of the OIPRD, informing us that his office had re ceived  two complaints on the  matter and is investigating.</t>
-  </si>
-  <si>
-    <t>While on  his way, Bashar got confused and got off at the wrong bus stop.</t>
-  </si>
-  <si>
-    <t>Hudson went so far as to  delay his retirement so that he  could remain on this case.</t>
-  </si>
-  <si>
-    <t>The Sexual Assault and Child Abuse  section is currently investigating this case to determine any links to other incidents.</t>
-  </si>
-  <si>
-    <t>Cell Block Special Constables Jennifer Mucz , Glenmore Clark,  Cameron Entwistle and Roger Hustins had custody of a female teenager for  mischief.</t>
-  </si>
-  <si>
-    <t>Niagara Police Assistance   Since last February, Malcolm Edwards was wanted by the  Niagara Police on a Canada  Wide Warrant for numerous offences including 3 counts of Attempt Murder.</t>
-  </si>
-  <si>
-    <t>On October  18th, Niagara requested help from our Guns &amp; Gangs Unit and the 23 -year-old was  arrested by our service within eight hours.</t>
-  </si>
-  <si>
-    <t>Officers attended and arrested  two people c arrying controlled substances worth  about  $165,000 in Iqaluit.</t>
-  </si>
-  <si>
-    <t>Winthrop Private Homicide   Our Major Crime unit continu es to investigate the stabbing death of   36-year-old Jeremy  Mack.</t>
-  </si>
-  <si>
-    <t>Countless hours of investigation and preparation for court from sections  across the Service resulted in both Bhupinderpal Gill and Gurpreet  Ronald being found  guilty and sentenced to life in prison with no parole for 25 years.</t>
-  </si>
-  <si>
-    <t>Mark Kilby of the Robbery Unit led the efforts to locat e and arrest  the suspect.</t>
-  </si>
-  <si>
-    <t>We recently held two impaired and distracted driving crash  simulations with students at Samuel -Genest and Louis Riel High Schools.</t>
-  </si>
-  <si>
-    <t>Inspector Gina Rosa passed away last week after a battle  with cancer.</t>
-  </si>
-  <si>
-    <t>Major Crime Arrests   I want to recognize the hard work that led to the arrests of  several individuals in the homicide of  Mohamed Najdi and  the arrest of a man in the murder of Christina Voelzing.</t>
-  </si>
-  <si>
-    <t>Morale is  a hard conversation in policing  and we know that morale is not where it  needs to be.</t>
-  </si>
-  <si>
-    <t>The T enure program has been cancelled  and is being replaced  with a new sworn Transfer Policy.</t>
-  </si>
-  <si>
-    <t>We also lost  Jan Dumais this month, one of the first policewomen to join our Service.</t>
-  </si>
-  <si>
-    <t>Shooting on Montreal Road   Our Guns and Gangs Unit  recently investigated and laid charges in relation to a  shooting on Montreal Road.</t>
-  </si>
-  <si>
-    <t>Robbery/Stabbing near Hunt Club Rd/Lorry Greenberg  Drive   On August 10, a male victim was stabbed in the shoulder in the area of Hunt Club Rd  and Lorry Greenberg  Drive during a robbery.</t>
-  </si>
-  <si>
-    <t>Stabbing on Cedarwood Drive   On October 21, East Patrol officers responded to a disturbance on Cedarwood Drive  wher e a stabbing had taken place.</t>
-  </si>
-  <si>
-    <t>Wilno  homicides   Last week, our Service assisted a strong policing partner, the OPP , with the arrest of a  57-year-old male  suspect wanted  in connection with the tragic murder of 3 women near   Wilno , Ontario .</t>
-  </si>
-  <si>
-    <t>Stabbing Death on Jasmine Cres   On September 20, a 17 -year-old male victim was stabbed to death on Jasmine  Crescent.</t>
-  </si>
-  <si>
-    <t>Incident in the ByWard Market   A number of our officers were also recently in volved in a violent encounter in the  ByWard Market that resulted in two arrests and an OPS officer being injured.</t>
-  </si>
-  <si>
-    <t>On  September 11, an Ottawa Police officer along with a civilian member of our Imaging  Services Unit, were in a marked police cruiser at Willi am and York streets when a man  stepped out in fron t of the cruiser blocking it.</t>
-  </si>
-  <si>
-    <t> Joint Organized Auto Theft Investigation   In the winter of 2014, our Organized Auto Theft Section started a joint  investigation with the Service de la sécurité publique de la MRC des Collines into  vehicles being stolen from Ontario and Quebec and later given new vehicle  identification numbers (VIN) before being registered in Ontario and sold.</t>
-  </si>
-  <si>
-    <t>45-year-old Gino Langevin was subsequently charged with first degree  murder  in relation to this incident .</t>
-  </si>
-  <si>
-    <t>20-year-old Khalif Shahareen  was arrested  and faces numerous charges including attempted murder, theft under $5,000, and  firearm charges.</t>
-  </si>
-  <si>
-    <t>Dewin Sabir, also 20, has been charged with firearm offences.</t>
-  </si>
-  <si>
-    <t>Just last week t wo arrests were  made  by Major Crime  in  connection with the homicide of Yusuf Ibrahim.</t>
-  </si>
-  <si>
-    <t>Mr. Ibrahim was murdered in February .</t>
-  </si>
-  <si>
-    <t>OPS assist RCMP with First Degree Murder investigatio n  In December of last year, the body of a 30 -year-old Ottawa man, Adrian Gregory, was  found in Edmonton.</t>
-  </si>
-  <si>
-    <t>In early June we received news that the RCMP had  successfully charged a man and a woman with the murder of Mr. Gregory  and th e  assistance was integral to the outcome of this investigation .</t>
-  </si>
-  <si>
-    <t>Project Shadow   Earlier this mon th, our Street Crime Unit concluded a four month und ercover  investigation targeting drug trafficking along Rideau Street and the ByWard Market  area.</t>
-  </si>
-  <si>
-    <t>A total of 52 people were charged with  over 200 offences related to the trafficking 2   of crack cocaine, pres cription pills and marijuana.</t>
-  </si>
-  <si>
-    <t>Charges in murder of Sharif Said   Within days of the murder of 21 -year-old Sharif Said on Tremblay Road at the start of  May our Major Crime Section made arrests.</t>
-  </si>
-  <si>
-    <t>Khalid MOHAMMAD, 26 years old of  Ottawa , was charged with s econd degree murder.</t>
-  </si>
-  <si>
-    <t>Jonathan Conohan, was involved in an investigation  into ongoing harassment  of a 38-year old man living within an intellectual  disability.</t>
-  </si>
-  <si>
-    <t>In  addition to carrying out an investigation and following up with the offenders, who were  10 years old, Cst.</t>
-  </si>
-  <si>
-    <t>After taking  the time to get to know the victim, Cst.</t>
-  </si>
-  <si>
-    <t>Constable Lisa Welsh   Earlier this month , a young woman  came to our front desk at Elgin  station  visibly upset.</t>
-  </si>
-  <si>
-    <t>Salinas and Constables Gill, Kay, Belanger,  Cutts, and Leclerc, all stopped and assisted the OPP in  triaging  victims and clearing  traffic.</t>
-  </si>
-  <si>
-    <t>He died of the injuries he sustained at a Jasmine Cr.</t>
-  </si>
-  <si>
-    <t>19-year-old David Dubois has been  charged with 2nd degree murder.</t>
-  </si>
-  <si>
-    <t>There has also been a competition struck between Mr.  Ryan and Defenceman Jake Gardiner of the Toronto Maple Leafs.</t>
-  </si>
-  <si>
-    <t>That includes members of the District Directorate, our DART Unit, P atrol, Crime  Analysts, Drugs and our Guns and Gangs U nit.</t>
-  </si>
-  <si>
-    <t>A suspect was soon identified and  arrested t hanks to the thorough investigation conducted by the lead Detective Jamie  Lalonde, along with the efforts of  Patrol, Forensics, the East Division Break and Enter  Unit, and the Street Crime Unit.</t>
-  </si>
-  <si>
-    <t>Mazen AL -NSEIRI, 32 years old of Ottawa, was  charged with 6 counts of break and enter, disguise with intent, and possession of break  and enter instruments.</t>
-  </si>
-  <si>
-    <t>Jonathan Gardiner attended a call of a Military Veteran, who s aid  he was suffering from PTSD .</t>
-  </si>
-  <si>
-    <t>First Degree Murder Charges Laid in three Homicides   On February 20,  we announced charges laid against Ian Bush in connection to the June  30, 2007 triple homicide of Alban Garon, Raymonde Garon, and Marie -Claire  Beniskos.</t>
-  </si>
-  <si>
-    <t>The 27 -year-old victim, Yusuf Ibrahim, was a  known gang member.</t>
-  </si>
-  <si>
-    <t>The suspect had contacted an 86 -year- old victim identifying himself as his grandson, advising  that he was in need of money  and making a request for a $10K loan.</t>
-  </si>
-  <si>
-    <t>He was  arrested by Patrol at the scene and charged with several offences including  Attempt  Fraud Exceeding $5,000.</t>
-  </si>
-  <si>
-    <t>Sexual Assault   On February 15, Ottawa University Security contacted us advising they had a suspect in  custody for a sexual assault.</t>
-  </si>
-  <si>
-    <t>That investigation  lead  to a search warrant on the premises that resulted in the seizure of marijuana, beer and  illegal cigarettes.</t>
-  </si>
-  <si>
-    <t>Arrest on Attempted Murder Charges   This past weekend, we were  alerted to the possible presence in Ottawa of Rahshawn  Hamilton, a man wanted by Montreal police for attempted murder.</t>
-  </si>
-  <si>
-    <t>That work resulted in the quick arrest of Hamilton in downtown Ottawa.</t>
-  </si>
-  <si>
-    <t>The suspect was observed by two  constables  walking on Orleans Blvd.</t>
+    <t>she was the officer in charge of the  rcmp’s response to the national inquiry on missing and murdered  indigenous women and girls, among other work includi ng work as a task  force member of the canadian women’s foundation examining human  trafficking of women and girls.</t>
+  </si>
+  <si>
+    <t>one officer immediately went to the shooting victim and applied lifesaving  first aid.</t>
+  </si>
+  <si>
+    <t>the man was charged with attempted murder, point ing a firearm and  several other firearms -related offences.</t>
+  </si>
+  <si>
+    <t>we have seen nearly a 25% rise in hate crime reporting through the first  three quarters of 2021.     in the past two months, ops hate crime unit officers have charged four  individuals with 13 counts of hate -motivated offences targeting lgbtq+,  south asian and black communities.</t>
+  </si>
+  <si>
+    <t>as a part of the agreed terms, the  victim was paid  an amount in restitution and the accused —both 19 years  of age —also went through cultural/race training with dr. rev erend   anthony bailey.</t>
+  </si>
+  <si>
+    <t>the tradition of the canadian police and peace officer s’ memorial actually  started following the death of ottawa police constable david kirkwood i n  1977.     since then,  more than 900 names are now on the memorial  tablets.</t>
+  </si>
+  <si>
+    <t>eric czapnik     we also recognize and remember all  ops members who have tragically  taken their own lives .</t>
+  </si>
+  <si>
+    <t>including constable thomas roberts death  on this  day which is the 2 -year anniversary of his passing .</t>
+  </si>
+  <si>
+    <t>becoming an anti -racist service, city and soc iety will not happen with anti -racism training  programs, cultural awareness strategies – there is no simple or quick fix for these generational  human failings.</t>
+  </si>
+  <si>
+    <t>this month, ms. hanadi mohammed, was stabbed and killed – her daughter was seriously  wounded.</t>
+  </si>
+  <si>
+    <t>with the direct assistance of the public, our officers were able to quickly locate and  arrest the suspect, ms mohammed’s fo rmer spouse.</t>
+  </si>
+  <si>
+    <t>thank you for always being there.”         manslaughter  charge      in may of 2020 our homicide unit began investigating the death of chloe guan -branch, a five  year old.</t>
+  </si>
+  <si>
+    <t>following a year of investigation, which included significant forensic analysis, the  homicide unit charged a man with manslaughter and a woman with criminal negligence  causing death and failing to provide the necessaries of life.</t>
+  </si>
+  <si>
+    <t>constables charged      finally, i want to end this verbal by discussing some difficult news for our service.</t>
+  </si>
+  <si>
+    <t>last week,  two ottawa police constables were criminally charged by the rcmp.</t>
+  </si>
+  <si>
+    <t>these two officers were charged criminally and immediately suspended.</t>
+  </si>
+  <si>
+    <t>illegal or inappropriate behaviours are not tolerated and we are serious and focused o n  identifying, investigating and prosecuting it whenever it occurs.</t>
+  </si>
+  <si>
+    <t>gun &amp; gang violence     this been a very tragic and difficult period for ottawa and the ottawa police service.</t>
+  </si>
+  <si>
+    <t>immediately following my update, the board will receive a full presentation from  inspector  carl cartright with additional details on the crime analysis and the operational  plan.</t>
+  </si>
+  <si>
+    <t>charges against a second teacher were also laid.</t>
+  </si>
+  <si>
+    <t>the man was arrested and charged, and the child taken to cheo where they  discovered he had been given by marijuana and an unknown drug.</t>
+  </si>
+  <si>
+    <t>there were many common themes relating  to unresolved historical  issues which have been further aggravated and exposed by the once in a generation  challe nges we have all been facing over the last year ….</t>
+  </si>
+  <si>
+    <t>somerset st. west homicide     i will now provide an update on a series of a critical incident that occur red last friday  morning in centretown – it involved a rapid succession of violent attacks and the rapid  deployment of police resources to the area.</t>
+  </si>
+  <si>
+    <t>on friday morning, 64 -year-old carl reinboth was stabbed to death on somerset st.  west just blocks from the eccles st. health facility where he worked as a harm reduction  worker.</t>
+  </si>
+  <si>
+    <t>within a short period of time and only a short distance from the homicide scene, a  second person was similarly attacked.</t>
+  </si>
+  <si>
+    <t>ops c onstable  dave mcculloch made the  actual arrest – the combined efforts of the police and the community likely prevented  more crimes  and victimization .</t>
+  </si>
+  <si>
+    <t>i can't tell  you how much it meant to the small business owners and employees, who are under  tremendous stress from the pandemic and now are traumatized by the homicide right at  their doorstep.”     and this message from carole sinclair, manager of harm reduction somerset west  community health centre  – an email that she sent directly to  ops officer jf morin:     “hi officer morin.</t>
+  </si>
+  <si>
+    <t>thanks, carole.”      in consultation with the crown, the a ccused male has been charged with second degree  murder and attempted murder for the second stabbing.</t>
+  </si>
+  <si>
+    <t>the man was found guilty of threatening and harassing people at  the temple and sentenced to thr ee months jail time, with three year’s probation.</t>
+  </si>
+  <si>
+    <t>in 2020, 24 people were charged with 58 counts of various hate related  offences last year.</t>
+  </si>
+  <si>
+    <t>last summer, a man was charged with mischief after displaying and uttering hateful  anti-islamic remarks in the byward market.</t>
+  </si>
+  <si>
+    <t>he was charged with mischief and has pled  guilty.</t>
+  </si>
+  <si>
+    <t>with the approval of the crown, t he individual was  later charged with hate motivated offences  against our officers .</t>
+  </si>
+  <si>
+    <t>the city of ottawa and the ops are fortunate to have one of, if not the best, hate  crime investigators in canada, detective ali toghrol.</t>
+  </si>
+  <si>
+    <t>chauvin conviciton      i will conclude my presentation with some reflections on the convictions registered last  week in the criminal trial of former p olice officer derek chauvin.</t>
+  </si>
+  <si>
+    <t>we have also all been deeply affected by  george floyd’s murder  and its global and local social impacts.</t>
+  </si>
+  <si>
+    <t>we stand with all local and international  communities who have been impacted by the  tragic events surrounding george floyd which  shone a spotlight on  the historical and  current reality of systemic racism in policin g, the  justice system  and society .</t>
+  </si>
+  <si>
+    <t>every person, organization and institution can and should do more to help prevent such  human tragedies  as the murder of george floyd .</t>
+  </si>
+  <si>
+    <t>hate crime     i now want to make a  statement of support to our asian community and our vaw  community after the terrible , tragic  hate-fueled  deaths of eight people in atlanta last  week  – six of the murdered were asian women – seven of the eight people murdered  were women .</t>
+  </si>
+  <si>
+    <t>from my perspective as chief here in the nation’s capital, what took place in atlanta is  a hate crime that victimized those directly murdered or injured, their famili es, the asian  community and women (locally an d internationally).</t>
+  </si>
+  <si>
+    <t>the commendations were for an event which occurred last year when eric and wayne  were on patrol and came across a serious motor  vehicle accident  where three people  were trapped inside  a burning vehicle.</t>
+  </si>
+  <si>
+    <t>at the time, i was on patrol with wayne, e ric and the rest of t heir carlington nrt  when  we investigated a male who was involved in a  criminal code driving offence.</t>
+  </si>
+  <si>
+    <t>just over a year later, eric and wayne learned that the mother  had tragically passed  away from a drug overdose leaving the father alone to look after the young kids.</t>
+  </si>
+  <si>
+    <t>eric 5   and wayne co uld see that this was a potentially critical situation so they took immediate  action to assist the family.</t>
+  </si>
+  <si>
+    <t>for me this second event involving wayne and eric was even more impactful than their  life-saving efforts during the car accident.</t>
+  </si>
+  <si>
+    <t>shortly i after , i was made aware of an emergency response police operation that had  just concluded a short distanc e from the station where i had met with eric and wayne .</t>
+  </si>
+  <si>
+    <t>later at home, i got myself caught up on the news of the abduction, rape and murde r of  a 30-year-old woman, sara everard , in london england .</t>
+  </si>
+  <si>
+    <t>there was a patient having a mental health crisis and two of your officers,  constables eric lepage and feisel bila houssein  were instrumental in the  care of this patient.</t>
+  </si>
+  <si>
+    <t>violence against women:    five new investigators will be added our sexual assault and child abuse  section and our partner assault section.</t>
+  </si>
+  <si>
+    <t>two of these positions will be  “coordinat ors” – one to provide direct suppor t to the vaw community and  the other to provide direct support to the indigenous community in order to  advance the recommendations re “m issing and murdered indigenous  women and girls”.</t>
+  </si>
+  <si>
+    <t>we will also complete and evaluate the pilot project involving  ruben thomlinson (a third-party pro vided for intake and investigations for  all types of harassment , including sexual harassment ).</t>
+  </si>
+  <si>
+    <t>this pilot  evaluation will be part of the larger report and recommendations stemming from the board/service project to address “workplace sexual violence &amp;  harassment .”   mindset shi ft  please know that t here is a growing recognition across policing in canada  and within the ops that the traditional model of policing needs to change  and evolve.</t>
+  </si>
+  <si>
+    <t>constable b runo gendron     on november 12 died in an off -duty medical event.</t>
+  </si>
+  <si>
+    <t>opp constable marc hovingh     we were also shocked to learn of the on -duty death last week of opp  constable marc hovingh on manitoulin island.</t>
+  </si>
+  <si>
+    <t>crime trends and statistics     despite this recent progress on weapons, we have seen a overall  rise in  crime in our city in the past five years, growing by more than 30%.</t>
+  </si>
+  <si>
+    <t>annually, the ottawa police responds to over 4,200  non-criminal domestic  complaints or partner disputes, growing by +10% since 2015.     so far this year there have been over 400 overdoses  reported to police  (ytd) with naloxone administered nearly 100 times.</t>
+  </si>
+  <si>
+    <t>we will also be increasing our resources to saca/partner assault which  includes dedicated staffing for violence against women along with missing  &amp; murdered indigenous women and girls.</t>
+  </si>
+  <si>
+    <t>7   our members raised thousands of dollars for a woman who had been the  victim of a knife attack by her partner, and her children.</t>
+  </si>
+  <si>
+    <t>nrt members , constables eric douglas  and wayne clayton , were first to  arrive on the scene of a motor vehicle collision, with one of the vehicles on  fire.</t>
+  </si>
+  <si>
+    <t>douglas  stayed with the other passenger trapped in the front  seat, administering first aid, until fire services could arrive to extract her.</t>
+  </si>
+  <si>
+    <t>this year,  officers have seized 92 crime guns compared to 87 seized in 2019. this is  part of an amazing overall year to date effort by ops members and  comm unity partners that has resulted in:   1. lowest number of shooting events in 5 years   2. lowest number of homicides in 5 years   3. highest number of crime guns seized in 5 years   constable andrew bowen responded to a call about a teenager who had  been reported to have overdosed.</t>
+  </si>
+  <si>
+    <t>crime management success     covid 19 has had varying impacts on local crime, traffic and social order  issues that the ops deals with in the nation’s capital.</t>
+  </si>
+  <si>
+    <t>this year our homicide unit has  laid murder char ges in  all six of the  homicides that occurred in ottawa – an unheard of and unprecedented   solvency r ate.</t>
+  </si>
+  <si>
+    <t>for instance last week the ops were called to an address in barrhaven  for a very high risk volatile incident .</t>
+  </si>
+  <si>
+    <t>we have started a meaningful, if difficult, conversation on systemic racism  and gender inequity in canadian society, and in policing in particula r.  this  is a dialog ue taking place with our service  members  and our community  members .</t>
+  </si>
+  <si>
+    <t>in fact, this morning three of our special constables were attacked by a prisoner.</t>
+  </si>
+  <si>
+    <t>courage under pressure   this past month a woman lost control of her car and it ended up in the ottawa river near the thomas  dolan parkway.</t>
+  </si>
+  <si>
+    <t>defunding/ disbanding police   since the tragic death of george floyd in minneapolis, it’s created a whole raf t of social media posts and  hashtags.</t>
+  </si>
+  <si>
+    <t>o   shoot ing is grim reminder of the risks we face.</t>
+  </si>
+  <si>
+    <t>stevenson, recently murdered in the line  of duty in nova scotia.</t>
+  </si>
+  <si>
+    <t>confronting the treatment of racialized members.</t>
+  </si>
+  <si>
+    <t>ottawa saw 73 shootings with 26 people injured, and  five killed last year in gun violence.</t>
+  </si>
+  <si>
+    <t>the volume of non -violent crime reports also  increased by 10%, with thefts under $5,000 driving  this result.</t>
+  </si>
+  <si>
+    <t>1   chief’s verbal for  september 23, 2019     it’s with great sadness that i ’ve learned  that our board chair diane deans, has  recently received some critical news about  her health.</t>
+  </si>
+  <si>
+    <t>the stren gth of ops lies with its members.</t>
+  </si>
+  <si>
+    <t>drugs, guns discovered in arrest     we continue to focus on gun violence  suppression.</t>
+  </si>
+  <si>
+    <t>offender apprehend ed    a federal parolee, who was unlawfully at large,  was arrested by the repeat offender parole  enforcement team and central area patrol  members.</t>
+  </si>
+  <si>
+    <t>keith martin was dispatched  to a call about a missing elderly man.</t>
+  </si>
+  <si>
+    <t>total shootings in 2018: 78   ytd shootings in 2018: 41   total shootings in 2019: 26      2   homicide   on friday, may 24, 2019, 27 -year-old  kenneth frampton  was arrested and  charged with first degr ee murder for the  killing of 31 -year-old kenneth ammaklak   on may 14, 2019 at 251 donald st.    this was the sixth homicide of 2019, all six  resulting in successful investigations by our  major crime unit concluding with murder  charges against those deemed responsible.</t>
+  </si>
+  <si>
+    <t>the school bus cameras began  running this morning in orleans and  barrhaven  and are designed to capture the  images of vehicles that pass the bus when  the stop arms are deployed.</t>
+  </si>
+  <si>
+    <t>reichert had the difficult  decision to shoot a suspect after the suspect  shot two people.</t>
+  </si>
+  <si>
+    <t>investigating hate crimes remains a priority  for the ops because we understand and  appreciate the impact they have on the  community .</t>
+  </si>
+  <si>
+    <t>in the first instance, constable amanda munro was viciously attacked outside a residence  sustaining serious injuries to her arm.</t>
+  </si>
+  <si>
+    <t>she was able to neutralize the imminent threat and the  dog was shot by her while she was trying to fight it off.</t>
+  </si>
+  <si>
+    <t>officers shot and  killed this dog to prevent it from further injuring this person.</t>
+  </si>
+  <si>
+    <t>crime stoppers month   january is crime stoppers month, and i want to thank those who have use d the service,  because we use your tips to eliminate incidents of criminality in our communities city - wide.</t>
+  </si>
+  <si>
+    <t>last year crime stoppers recovered almost $500,000 worth of narcotics, assisted  with 146 criminal charges, and helped us to clear 33 cases.</t>
+  </si>
+  <si>
+    <t>homicide   two weeks ago our missing person section began an investigation into the  disappearance of susan kuplu.</t>
+  </si>
+  <si>
+    <t>two people are now charged with second degree  murder in her death.</t>
+  </si>
+  <si>
+    <t>distracted dr iving   we are also preparing for new changes to our distracted driving laws.</t>
+  </si>
+  <si>
+    <t>as of january  1st, a first offence will yield a three -day licence suspension, three demerit points, and a  fine of up to $1,000.</t>
+  </si>
+  <si>
+    <t>if you are caught three times, you will lose your l icence for 30  days, lose six demerit points, and face a fine of up to $3,000.</t>
+  </si>
+  <si>
+    <t>chief’s verbal report   november 26, 2018   good evening,   shooting in the city’s south end   this past friday, we saw a shooting occur at a busy south end shopping mall that left  one man dead.</t>
+  </si>
+  <si>
+    <t>arrest of wanted man   just hours later on saturday m orning, frontline officers arrested a wanted man who  was armed with a loaded handgun.</t>
+  </si>
+  <si>
+    <t>robbery unit   on november 13, the robbery unit laid criminal charges after frontline officers  arrested seven males  responsible for a rash of cell phone robberies in the west end.</t>
+  </si>
+  <si>
+    <t>products and proceeds were seized and 12  people were charged under  the new provincial cannabis control act.</t>
+  </si>
+  <si>
+    <t>distracted driving   distracted driving continues to be an issue on our roads and we are always looking at  enforcement strategies to assist us in modifying driver behavio ur.</t>
+  </si>
+  <si>
+    <t>four people were charged with trafficking  offen ces, the illegal possession of a firearm, and possession of proceeds of crime.</t>
+  </si>
+  <si>
+    <t>eleven  people were shot and killed and many more were injured including four police officers  who came to stop the gunman.</t>
+  </si>
+  <si>
+    <t>investigators were  recently part of a national initiative called northern spotlight, where seven women were  identified provincially, and the ops ass isted with the rescue of three .</t>
+  </si>
+  <si>
+    <t>in august, constables  michelle berkvens and james killeen responded to a  situation where a refugee family that had travelled from montreal to ottawa but had no  where to stay and very limited funds.</t>
+  </si>
+  <si>
+    <t>guns and gangs   i wanted to inform the board that following a review in our cid areas, our dart team  has been realigned into the new prevention and intervention of violence in ottawa or  pivot unit.</t>
+  </si>
+  <si>
+    <t>homicides   in the past five days  we have seen two serious and disturbing homicides in our city.</t>
+  </si>
+  <si>
+    <t>last thursday, a woman working as a librarian in a downtown religious centre was  attacked and mur dered.</t>
+  </si>
+  <si>
+    <t>in partnership with ottawa bylaw, the  alcohol and gaming commission of ontario and oc transpo, we are conducti ng  community safety initiatives to disorderly behaviour, like liquor licence act  offences,  criminal activity and aggressive panhandling.</t>
+  </si>
+  <si>
+    <t>fentanyl   on may 9th, the str eet crime unit executed a search warrant and charged an adult male  after an investigation into drug trafficking activity.</t>
+  </si>
+  <si>
+    <t>a van has plowed through a sidewalk  killing or injuring a number of individuals.</t>
+  </si>
+  <si>
+    <t>i want to thank a passerby mr. raposo who came to the  aid of one of the officers who  was injured during a foot chase to arrest some of the suspects.</t>
+  </si>
+  <si>
+    <t>gun violence   this weekend we saw a serious shooting in the downtown area that left a 35 -year-old  man fighting for his life.</t>
+  </si>
+  <si>
+    <t>constable martin corbeil located hockey bags at the end of a remote country road containing the stolen goods, and k9 constables jamie desormeaux  and ian  beattie, with the help of k9 partner frigo, later located the suspect and arr ested  him.</t>
+  </si>
+  <si>
+    <t>one suspect was  charged in relation to the robbery and all suspects have been charged wi th drug related  offences.</t>
+  </si>
+  <si>
+    <t>that includes conducting compliance  checks on those already charged but released in the community on conditions.</t>
+  </si>
+  <si>
+    <t>crime prevention ottawa unveiled its update to the ottawa’s refreshed street violence  and gang strategy at the start of december.</t>
+  </si>
+  <si>
+    <t>sexual assault review panel   and it’s our partnerships that help us to develop new strategies for some of the  service’s top priorities, like violence again st women.</t>
+  </si>
+  <si>
+    <t>earlier this month officers responded to a call from a man who told 911 he  had a gun and was going to shoot someone.</t>
+  </si>
+  <si>
+    <t>quick thinking/tourniquet saves  gunshot victim’s life   when constables f . roberge, p . wiseman and i . kemp responded to a call of shots  fired on concord st. north  in the early hours of september 30 th, they were not certain  what to expect.</t>
+  </si>
+  <si>
+    <t>in 2015, 17 -year-old  issaiah clachar  was stabbed to death on jasmine cr.</t>
+  </si>
+  <si>
+    <t>murder on  caldwell avenue   our major crimes section is investigating a daytime shooting that occurred on  caldwell avenue last week.</t>
+  </si>
+  <si>
+    <t>this latest homicide has kept our major crime unit busy however, this weekend  investigators also made an arrest i n the homicide of devon labelle  who was  stabbed to death on montreal rd.</t>
+  </si>
+  <si>
+    <t>paul mcintyre was at a west end mall when he witnessed two men fighting.</t>
+  </si>
+  <si>
+    <t>opioids   we continue to work with our partners in the health s ector to deal with the  ongoing opioid  crisis.</t>
+  </si>
+  <si>
+    <t>homicide investigation   our major crime section continues to investigate a homicide and shootings in the  elmhurst park area near alpine avenue and tavistock road this morning .</t>
+  </si>
+  <si>
+    <t>28 have been arrested and charged.</t>
+  </si>
+  <si>
+    <t>last week a ten -year prison sentence was imposed against a trafficker  charged by our drug unit in february.</t>
+  </si>
+  <si>
+    <t>homicide   sadly, we saw another homicide in ottawa early t his morning  after a shooting outside of  a bar .</t>
+  </si>
+  <si>
+    <t>the death of the young man who was murdered appears to have come about  after a minor altercation inside a rideau st. bar.</t>
+  </si>
+  <si>
+    <t>guns and gangs  we continue to see the use of weapons in our city as we head into the summer months.</t>
+  </si>
+  <si>
+    <t>officers respond to woman in distress   earlier this month, constables katherine ste.</t>
+  </si>
+  <si>
+    <t>marie, stephanie mcconnell and cory  chipman responded t o a report of a woman threatening self -harm.</t>
+  </si>
+  <si>
+    <t>those officers involved in the case never let it go, and exemplified the teamwork  required to see a guilty verdi ct.  as well, in the same week, we saw a guilty verdict in the  homicide of michael wassill in 2013.   this is another example of our commitment to  victims of crime and how hard work gets results.</t>
+  </si>
+  <si>
+    <t>under section 89 (1) of  the police services act , the chief has the authority to suspend  a sworn member with pay.</t>
+  </si>
+  <si>
+    <t>arrest in elmira drive murder   i would like to highlight the hard work done by our major crime investigators that led to  charges agai nst brayton kennedy in relation to the september 2016 shooting death of  jacob thompson.</t>
+  </si>
+  <si>
+    <t>kennedy was arrested earlier this month and charged with second  degree murder.</t>
+  </si>
+  <si>
+    <t>officers rescue woman   in early april, constables marc desjardins and jason murphy responded to a call from a  woman in distress, threatening to harm herself.</t>
+  </si>
+  <si>
+    <t>several people called police saying they  were attacked by multiple suspects using tasers,  and robbed of their possessions.</t>
+  </si>
+  <si>
+    <t>handgun seized after shots fired   you never know what any given day on the job will require of you.</t>
+  </si>
+  <si>
+    <t>steve brown had after shots were fired in a downtown  neighbourhood on april 13th.</t>
+  </si>
+  <si>
+    <t>we tak e these incidents seriously and urge members of the public to file reports with us  do we can investigate them fully.</t>
+  </si>
+  <si>
+    <t>sweet has spent 31  years with this police and has been charged with the criminal investigations unit.</t>
+  </si>
+  <si>
+    <t>section 11 investigation   earlier this month, charges were laid by the province’s special investigations unit  against a member of our service in relation to the death of abdirahman abdi.</t>
+  </si>
+  <si>
+    <t>pippy was off duty but saw the girl in distress and used her training to step in and dislo dge a piece of food from the  girl's throat.</t>
+  </si>
+  <si>
+    <t>sexual assault   on march 4th, three officers responded to a west end mall after a 3 year old girl was  sexually assaulted .</t>
+  </si>
+  <si>
+    <t>regulated interactions   as the board is aware, in december, i had te mporarily delayed the use of regulated  interactions – formerly known as street checks - until all implementation steps had  been completed.</t>
+  </si>
+  <si>
+    <t>firearms arrest   last week, central patrol responded to a call on macarthur avenue concerning two men  seen with guns, entering an apartment building.</t>
+  </si>
+  <si>
+    <t>land was considered armed and dan gerous and  was wanted in relation to several serious assaults.</t>
+  </si>
+  <si>
+    <t>the  robbery unit connected the accused to an additional robbery that took place on march  6th at a bank on wellington st.  a man  was charged with both robberies.</t>
+  </si>
+  <si>
+    <t>the suspect has since been charged in re lation to four additional retail  robbery investigations.</t>
+  </si>
+  <si>
+    <t>investigators believe  these arrests may be connected to a series of west -end robberies that have  occurred since december.</t>
+  </si>
+  <si>
+    <t>guilty murder verdict   on february 17, devontay hackett was found guilty of 2nd degree murder for killing  brandon volpi, in june of 2014.   i would like to thank everyone involved in their detailed  work on this compl ex file , including the lead investigators , staff sergeant d. vinet and  sergeant d. brennan.</t>
+  </si>
+  <si>
+    <t>however, this past friday, the board received a letter from gerry mcneilly,  director of the oiprd, informing us that his office had re ceived  two complaints on the  matter and is investigating.</t>
+  </si>
+  <si>
+    <t>about 8,000 pills and  approximately 1kg of powder drugs including fentanyl, mdma and cocaine were seize d  a total of 12 people were arrested and charged.</t>
+  </si>
+  <si>
+    <t>tonight there is a  session in k anata foll owing the death of 14 -year-old chloe kotval.</t>
+  </si>
+  <si>
+    <t>just this  week, we received a letter from a woman  who had been sexually assaulted, reported it  and had her case go to trial.</t>
+  </si>
+  <si>
+    <t>while on  his way, bashar got confused and got off at the wrong bus stop.</t>
+  </si>
+  <si>
+    <t>two sisters are dead  and their brother is now charged in their deaths.</t>
+  </si>
+  <si>
+    <t>hudson went so far as to  delay his retirement so that he  could remain on this case.</t>
+  </si>
+  <si>
+    <t>cell block special constables jennifer mucz , glenmore clark,  cameron entwistle and roger hustins had custody of a female teenager for  mischief.</t>
+  </si>
+  <si>
+    <t>murder suspect arrested   i want to thank our investigators and the many officers who worked to identify and then  arrest a suspect in a homicide early saturday morning.</t>
+  </si>
+  <si>
+    <t>niagara police assistance   since last february, malcolm edwards was wanted by the  niagara police on a canada  wide warrant for numerous offences including 3 counts of attempt murder.</t>
+  </si>
+  <si>
+    <t>officers attended and arrested  two people c arrying controlled substances worth  about  $165,000 in iqaluit.</t>
+  </si>
+  <si>
+    <t>winthrop private homicide   our major crime unit continu es to investigate the stabbing death of   36-year-old jeremy  mack.</t>
+  </si>
+  <si>
+    <t>countless hours of investigation and preparation for court from sections  across the service resulted in both bhupinderpal gill and gurpreet  ronald being found  guilty and sentenced to life in prison with no parole for 25 years.</t>
+  </si>
+  <si>
+    <t>mark kilby of the robbery unit led the efforts to locat e and arrest  the suspect.</t>
+  </si>
+  <si>
+    <t>we recently held two impaired and distracted driving crash  simulations with students at samuel -genest and louis riel high schools.</t>
+  </si>
+  <si>
+    <t>inspector gina rosa passed away last week after a battle  with cancer.</t>
+  </si>
+  <si>
+    <t>major crime arrests   i want to recognize the hard work that led to the arrests of  several individuals in the homicide of  mohamed najdi and  the arrest of a man in the murder of christina voelzing.</t>
+  </si>
+  <si>
+    <t>policing across canada is facing many  challenges with rising citizen expectations, increased  oversight, changing trends in crime and tightening  budgets.</t>
+  </si>
+  <si>
+    <t>just last week 2 individuals were charged in relation to a recent shooting on january 15  on in nes road in which a man was struck by a bullet .</t>
+  </si>
+  <si>
+    <t>last year alone, we charged  more than 150 people and laid more than 1,200 charges in relation to guns and gang  activity on our streets.</t>
+  </si>
+  <si>
+    <t>finally, earlier this month, a person witnessed his neighbour’s  door getting  kicked on duford dr.    police were called and were able t o arrest the fleeing suspects.</t>
+  </si>
+  <si>
+    <t>she retired in march 2006 .  we also lost  jan dumais this month, one of the first policewomen to join our service.</t>
+  </si>
+  <si>
+    <t>violent crimes   we’ve laid a number of char ges this month in relation to some violent crimes that have  taken place in our community.</t>
+  </si>
+  <si>
+    <t>shooting on montreal road   our guns and gangs unit  recently investigated and laid charges in relation to a  shooting on montreal road.</t>
+  </si>
+  <si>
+    <t>he was taken to the hospital, treated, and has  since been release d.  a 23-year-old male  has been cha rged with attempted murder and  several firearm related offences.</t>
+  </si>
+  <si>
+    <t>robbery/stabbing near hunt club rd/lorry greenberg  drive   on august 10, a male victim was stabbed in the shoulder in the area of hunt club rd  and lorry greenberg  drive during a robbery.</t>
+  </si>
+  <si>
+    <t>stabbing on cedarwood drive   on october 21, east patrol officers responded to a disturbance on cedarwood drive  wher e a stabbing had taken place.</t>
+  </si>
+  <si>
+    <t>our east district investigat ors have  subsequently charged a 25-year-old male , and a 20-year-old male  with numerous  charges rel ated to this incident.</t>
+  </si>
+  <si>
+    <t>upon investigation, the robbery  unit charged a 21-year-old mal e in relation to all 5 incidents.</t>
+  </si>
+  <si>
+    <t>a 35-year-old male  was  subsequently charged in connection with these robberies.</t>
+  </si>
+  <si>
+    <t>and finally, between    september 29 and october 9, two suspects , typically armed with knives, robbed five  businesses, taking cash, cigarettes, and lottery ticket s.  one of the suspects has since  been charged, while the second remains unidentified.</t>
+  </si>
+  <si>
+    <t>two adult  males were charged, and a total of 11 criminal charges were laid.</t>
+  </si>
+  <si>
+    <t>crime prevention week nov 1 -7  between november 1 -7, a series of events will be held to celebrate crime prevention  week.</t>
+  </si>
+  <si>
+    <t>stabbing death on jasmine cres   on september 20, a 17 -year-old male victim was stabbed to death on jasmine  crescent.</t>
+  </si>
+  <si>
+    <t>thanks to the great wo rk of the responding officers and the major crime  investigators, an 18 year old male and a 25 year old male, both of ottawa, have been  arrested and charged with 2nd degree murder.</t>
+  </si>
+  <si>
+    <t>the man became aggressive with the  officer an d then assaulted the officer.</t>
+  </si>
+  <si>
+    <t>the civilian member observed the officer being  assaulted and called for assistance on the police ra dio.</t>
+  </si>
+  <si>
+    <t>the first responding officer was also  assaulted and had his baton  knocked away.</t>
+  </si>
+  <si>
+    <t> man charged in relati on to 7 robberies   between july 23 and september 18, a series of convenience store robberies  took place in kanata.</t>
+  </si>
+  <si>
+    <t>he was later linked to 6 other  robberies and charged.</t>
+  </si>
+  <si>
+    <t> human trafficking charges   following a four month long investigation  into organized prostitution and human  trafficking operations by our human trafficking unit , a man has been charged  with 76 criminal offences related to a total of 17 adult female victims.</t>
+  </si>
+  <si>
+    <t>following the arrest of the mother, an extensive investigation began that led to  the mother being charged with a number of criminal charges including parental  abduction without  a court order .</t>
+  </si>
+  <si>
+    <t>just last  weekend, two individuals were charged with attempted murder along with multiple  firearm and assault related offences, following an incident on montreal road where they  tried to discharge a loaded firearm o n two victims.</t>
+  </si>
+  <si>
+    <t>to date:    59 seized guns have been taken off the street;    250 people associated with gang activity have been charged, and,    1,218 criminal charges have been laid against those people.</t>
+  </si>
+  <si>
+    <t>a man was  threatening to blow up a neighboring business and harm and kill people.</t>
+  </si>
+  <si>
+    <t>charge laid in fatal hit and run on leitrim   at the end of june, a 39 -year-old male cyclist was struck fatally by a motorist on leitrim  road near albion.</t>
+  </si>
+  <si>
+    <t>charges were laid in both cases.</t>
+  </si>
+  <si>
+    <t>a 70-year-old man , who  was related to the victim , was arrested and charged with second degree murder.</t>
+  </si>
+  <si>
+    <t>and o n july 21, a 54-year-old woman  was stabbed on anna avenue.</t>
+  </si>
+  <si>
+    <t>45-year-old gino langevin was subsequently charged with first degree  murder  in relation to this incident .</t>
+  </si>
+  <si>
+    <t>i want to c ommend the paramedics and the o ps  officers who responded qu ickly to the call to ensure no further harm came to the  community.</t>
+  </si>
+  <si>
+    <t>attempt murder charge   a road rage incident on july 20th has lead to a number of charges.</t>
+  </si>
+  <si>
+    <t>20-year-old khalif shahareen  was arrested  and faces numerous charges including attempted murder, theft under $5,000, and  firearm charges.</t>
+  </si>
+  <si>
+    <t>dewin sabir, also 20, has been charged with firearm offences.</t>
+  </si>
+  <si>
+    <t>the work accomplished by officers during the six  month initiative was important to this in itiative , including:    55 seized guns taken off the street;    over 200  people associat ed with gang activity charged; and,    more than 1,000 criminal charges laid against those people.</t>
+  </si>
+  <si>
+    <t>just last week t wo arrests were  made  by major crime  in  connection with the homicide of yusuf ibrahim.</t>
+  </si>
+  <si>
+    <t>mr. ibrahim was murdered in february .</t>
+  </si>
+  <si>
+    <t>mvc involving an officer   earlier this month, one of our officers  in west patrol, was involved in a motor vehicle  collision while res ponding to a call for service.</t>
+  </si>
+  <si>
+    <t>ops assist rcmp with first degree murder investigatio n  in december of last year, the body of a 30 -year-old ottawa man, adrian gregory, was  found in edmonton.</t>
+  </si>
+  <si>
+    <t>in early june we received news that the rcmp had  successfully charged a man and a woman with the murder of mr. gregory  and th e  assistance was integral to the outcome of this investigation .</t>
+  </si>
+  <si>
+    <t>a total of 52 people were charged with  over 200 offences related to the trafficking 2   of crack cocaine, pres cription pills and marijuana.</t>
+  </si>
+  <si>
+    <t>a total  of 1750  cars were stopped, 13 drivers were asked to provide a breath sample and 2  were charged over the legal limit.</t>
+  </si>
+  <si>
+    <t>the individual showed obvious signs of impair ment   and was charged with refusing to provide a breath sample .</t>
+  </si>
+  <si>
+    <t>four people have been  charged.</t>
+  </si>
+  <si>
+    <t>charges in murder of sharif said   within days of the murder of 21 -year-old sharif said on tremblay road at the start of  may our major crime section made arrests.</t>
+  </si>
+  <si>
+    <t>khalid mohammad, 26 years old of  ottawa , was charged with s econd degree murder.</t>
+  </si>
+  <si>
+    <t>abdulaziz  abdullah, 28 years old  of ottawa, was also arrested and charged with accessory after the fact to murder.</t>
+  </si>
+  <si>
+    <t>jonathan conohan, was involved in an investigation  into ongoing harassment  of a 38-year old man living within an intellectual  disability.</t>
+  </si>
+  <si>
+    <t>constable lisa welsh   earlier this month , a young woman  came to our front desk at elgin  station  visibly upset.</t>
+  </si>
+  <si>
+    <t>salinas and constables gill, kay, belanger,  cutts, and leclerc, all stopped and assisted the opp in  triaging  victims and clearing  traffic.</t>
+  </si>
+  <si>
+    <t>19-year-old david dubois has been  charged with 2nd degree murder.</t>
+  </si>
+  <si>
+    <t>four occupants were located, arrested, and charged.</t>
+  </si>
+  <si>
+    <t>in total this year:    576 criminal charge s have been laid;    160 persons have been charged;    69 warrants have been executed; and,    170 compliance checks were conducted.</t>
+  </si>
+  <si>
+    <t>there has also been a competition struck between mr.  ryan and defenceman jake gardiner of the toronto maple leafs.</t>
+  </si>
+  <si>
+    <t>as part of this  effort, s ince the start of t his year alone:    over 400  criminal charges have been laid ;   over 12 0 persons have been charged ;   14 crime guns have been seized ;   over 60  warrants have been exec uted; and,    over 12 0 compliance checks have been conducted .</t>
+  </si>
+  <si>
+    <t>that includes members of the district directorate, our dart unit, p atrol, crime  analysts, drugs and our guns and gangs u nit.</t>
+  </si>
+  <si>
+    <t>within a day of the shooting, a man was arrested and charged in connection  with the shooting.</t>
+  </si>
+  <si>
+    <t>two males were also arrested last week and charged with the  shooting last month inside a residence on whitton place.</t>
+  </si>
+  <si>
+    <t>the  36 year  old was charged with several firearm and drug related charges.</t>
+  </si>
+  <si>
+    <t>johnathan  tully, 23 years old of ottawa, was charged with public mischief, breach probation, 2  counts of false messages, 3 counts of uttering threats, and common nuisance.</t>
+  </si>
+  <si>
+    <t>a suspect was soon identified and  arrested t hanks to the thorough investigation conducted by the lead detective jamie  lalonde, along with the efforts of  patrol, forensics, the east division break and enter  unit, and the street crime unit.</t>
+  </si>
+  <si>
+    <t>mazen al -nseiri, 32 years old of ottawa, was  charged with 6 counts of break and enter, disguise with intent, and possession of break  and enter instruments.</t>
+  </si>
+  <si>
+    <t>arrest in ba nk robbery   in early march, a suspect wearing a disguise walked into a bank on innes road, armed  with a weapon.</t>
+  </si>
+  <si>
+    <t>jonathan gardiner attended a call of a military veteran, who s aid  he was suffering from ptsd .</t>
+  </si>
+  <si>
+    <t>first degree murder charges laid in three homicides   on february 20,  we announced charges laid against ian bush in connection to the june  30, 2007 triple homicide of alban garon, raymonde garon, and marie -claire  beniskos.</t>
+  </si>
+  <si>
+    <t>homicide on forestglade crescent   the major crime section continues to investigate the homicide that took place on  forestglade crescent on february 6th.</t>
+  </si>
+  <si>
+    <t>the 27 -year-old victim, yusuf ibrahim, was a  known gang member.</t>
+  </si>
+  <si>
+    <t>the suspect had contacted an 86 -year- old victim identifying himself as his grandson, advising  that he was in need of money  and making a request for a $10k loan.</t>
+  </si>
+  <si>
+    <t>he was  arrested by patrol at the scene and charged with several offences including  attempt  fraud exceeding $5,000.</t>
+  </si>
+  <si>
+    <t>with the assistance of the opp, the mother was arrested and charged with  abduction and breach of family court orders.</t>
+  </si>
+  <si>
+    <t>sexual assault   on february 15, ottawa university security contacted us advising they had a suspect in  custody for a sexual assault.</t>
+  </si>
+  <si>
+    <t>the suspect left his friend’s room and entered a residential unit belonging to a female student, where he sexually assaulted her.</t>
+  </si>
+  <si>
+    <t>he has been  charged with sexual assault and break and enter and the investigation continues.</t>
+  </si>
+  <si>
+    <t>one person  has been charged.</t>
+  </si>
+  <si>
+    <t>arrest on attempted murder charges   this past weekend, we were  alerted to the possible presence in ottawa of rahshawn  hamilton, a man wanted by montreal police for attempted murder.</t>
+  </si>
+  <si>
+    <t>all five have been charged and one individual is being held by  canada border services as he is currently in the country illegally.</t>
+  </si>
+  <si>
+    <t>after receiving a small amount of cash the suspect fled the  scene and walked northbound on orleans blvd.</t>
+  </si>
+  <si>
+    <t>the suspect was observed by two  constables  walking on orleans blvd.</t>
+  </si>
+  <si>
+    <t>trevor pratt, age 30, of ottawa,  is charged with single counts each of robbery and wea ring a disguise.</t>
+  </si>
+  <si>
+    <t>homicide</t>
+  </si>
+  <si>
+    <t>speech violations</t>
   </si>
   <si>
     <t>Unknown</t>
   </si>
   <si>
-    <t>homicide</t>
+    <t>stabbing</t>
+  </si>
+  <si>
+    <t>driving violations</t>
   </si>
   <si>
     <t>drug violations</t>
   </si>
   <si>
-    <t>traffic violations</t>
+    <t>assault and harrassment</t>
+  </si>
+  <si>
+    <t>total possession of stolen property</t>
   </si>
   <si>
     <t>total assaults against a peace officer</t>
-  </si>
-  <si>
-    <t>stabbing</t>
-  </si>
-  <si>
-    <t>total possession of stolen property</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1313,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E154"/>
+  <dimension ref="A1:E249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1044,7 +1341,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1053,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1061,7 +1358,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1070,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>209</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1078,7 +1375,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1087,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1095,24 +1392,24 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>209</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1121,15 +1418,15 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1138,15 +1435,15 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1155,15 +1452,15 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1172,15 +1469,15 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1189,32 +1486,32 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>210</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>211</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1223,15 +1520,15 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1240,15 +1537,15 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1257,15 +1554,15 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1274,15 +1571,15 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1291,15 +1588,15 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1308,15 +1605,15 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>210</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1325,15 +1622,15 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1342,15 +1639,15 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1359,15 +1656,15 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>208</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1376,15 +1673,15 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1393,32 +1690,32 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>208</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1427,15 +1724,15 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>211</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1444,15 +1741,15 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>210</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1461,15 +1758,15 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1478,15 +1775,15 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1495,15 +1792,15 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1512,15 +1809,15 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1529,32 +1826,32 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>212</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>208</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1563,15 +1860,15 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>208</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1580,15 +1877,15 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>212</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1597,15 +1894,15 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>208</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1614,15 +1911,15 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>208</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1631,15 +1928,15 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1648,15 +1945,15 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>213</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1665,15 +1962,15 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>212</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1682,32 +1979,32 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>209</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1716,32 +2013,32 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>214</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1750,15 +2047,15 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>208</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1767,15 +2064,15 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>209</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1784,15 +2081,15 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1801,15 +2098,15 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>208</v>
+        <v>309</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1818,15 +2115,15 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1835,15 +2132,15 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>208</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1852,15 +2149,15 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>212</v>
+        <v>309</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1869,15 +2166,15 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>208</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1886,15 +2183,15 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>209</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1903,32 +2200,32 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>212</v>
+        <v>311</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>208</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1937,15 +2234,15 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -1954,15 +2251,15 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1971,15 +2268,15 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -1988,15 +2285,15 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2005,15 +2302,15 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2022,15 +2319,15 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>208</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2039,15 +2336,15 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2056,15 +2353,15 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2073,32 +2370,32 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2107,15 +2404,15 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>212</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -2124,15 +2421,15 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2141,15 +2438,15 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2158,15 +2455,15 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -2175,15 +2472,15 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>210</v>
+        <v>309</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -2192,15 +2489,15 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>209</v>
+        <v>305</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -2209,15 +2506,15 @@
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -2226,15 +2523,15 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>212</v>
+        <v>305</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -2243,32 +2540,32 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>212</v>
+        <v>307</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E73" t="s">
-        <v>210</v>
+        <v>305</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B74" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -2277,15 +2574,15 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>208</v>
+        <v>312</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B75" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -2294,15 +2591,15 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B76" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -2311,15 +2608,15 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B77" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -2328,15 +2625,15 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>209</v>
+        <v>305</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B78" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -2345,32 +2642,32 @@
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B80" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -2379,15 +2676,15 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>210</v>
+        <v>305</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B81" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -2396,32 +2693,32 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B82" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>212</v>
+        <v>305</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -2430,15 +2727,15 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>208</v>
+        <v>306</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B84" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -2447,15 +2744,15 @@
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B85" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -2464,15 +2761,15 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B86" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -2481,15 +2778,15 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B87" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -2498,15 +2795,15 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B88" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -2515,15 +2812,15 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>209</v>
+        <v>310</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -2532,32 +2829,32 @@
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>209</v>
+        <v>305</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B90" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>212</v>
+        <v>305</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B91" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -2566,15 +2863,15 @@
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>208</v>
+        <v>309</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B92" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -2583,15 +2880,15 @@
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>208</v>
+        <v>309</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B93" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -2600,15 +2897,15 @@
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>209</v>
+        <v>309</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B94" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -2617,15 +2914,15 @@
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B95" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -2634,15 +2931,15 @@
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B96" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -2651,32 +2948,32 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B97" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E97" t="s">
-        <v>209</v>
+        <v>310</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B98" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2685,32 +2982,32 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>208</v>
+        <v>309</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B99" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E99" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B100" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -2719,15 +3016,15 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B101" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -2736,15 +3033,15 @@
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B102" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -2753,15 +3050,15 @@
         <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>212</v>
+        <v>307</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B103" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -2770,15 +3067,15 @@
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>209</v>
+        <v>305</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B104" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -2787,32 +3084,32 @@
         <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>209</v>
+        <v>305</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B105" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>210</v>
+        <v>307</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B106" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -2821,15 +3118,15 @@
         <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>309</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B107" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -2838,15 +3135,15 @@
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>208</v>
+        <v>310</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B108" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -2855,15 +3152,15 @@
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B109" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -2872,15 +3169,15 @@
         <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>307</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B110" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -2889,15 +3186,15 @@
         <v>1</v>
       </c>
       <c r="E110" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B111" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -2906,15 +3203,15 @@
         <v>1</v>
       </c>
       <c r="E111" t="s">
-        <v>209</v>
+        <v>312</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B112" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -2923,15 +3220,15 @@
         <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>208</v>
+        <v>310</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B113" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -2940,15 +3237,15 @@
         <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B114" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -2957,15 +3254,15 @@
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B115" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -2974,15 +3271,15 @@
         <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>209</v>
+        <v>311</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B116" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -2991,15 +3288,15 @@
         <v>1</v>
       </c>
       <c r="E116" t="s">
-        <v>213</v>
+        <v>305</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B117" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -3008,15 +3305,15 @@
         <v>1</v>
       </c>
       <c r="E117" t="s">
-        <v>213</v>
+        <v>305</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B118" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -3025,15 +3322,15 @@
         <v>1</v>
       </c>
       <c r="E118" t="s">
-        <v>209</v>
+        <v>305</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B119" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -3042,49 +3339,49 @@
         <v>1</v>
       </c>
       <c r="E119" t="s">
-        <v>209</v>
+        <v>305</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B120" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E120" t="s">
-        <v>212</v>
+        <v>305</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B121" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E121" t="s">
-        <v>212</v>
+        <v>311</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B122" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -3093,15 +3390,15 @@
         <v>1</v>
       </c>
       <c r="E122" t="s">
-        <v>214</v>
+        <v>307</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B123" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -3110,15 +3407,15 @@
         <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>209</v>
+        <v>305</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B124" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -3127,15 +3424,15 @@
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B125" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -3144,15 +3441,15 @@
         <v>1</v>
       </c>
       <c r="E125" t="s">
-        <v>208</v>
+        <v>310</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B126" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -3161,15 +3458,15 @@
         <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>209</v>
+        <v>305</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B127" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -3178,15 +3475,15 @@
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>209</v>
+        <v>305</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B128" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -3195,15 +3492,15 @@
         <v>1</v>
       </c>
       <c r="E128" t="s">
-        <v>209</v>
+        <v>305</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B129" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -3212,15 +3509,15 @@
         <v>1</v>
       </c>
       <c r="E129" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B130" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -3229,32 +3526,32 @@
         <v>1</v>
       </c>
       <c r="E130" t="s">
-        <v>210</v>
+        <v>311</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B131" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
       <c r="D131">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>210</v>
+        <v>305</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B132" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -3263,15 +3560,15 @@
         <v>1</v>
       </c>
       <c r="E132" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B133" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -3280,15 +3577,15 @@
         <v>1</v>
       </c>
       <c r="E133" t="s">
-        <v>209</v>
+        <v>305</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B134" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -3297,15 +3594,15 @@
         <v>1</v>
       </c>
       <c r="E134" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B135" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -3314,15 +3611,15 @@
         <v>1</v>
       </c>
       <c r="E135" t="s">
-        <v>208</v>
+        <v>311</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B136" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -3331,15 +3628,15 @@
         <v>1</v>
       </c>
       <c r="E136" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B137" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -3348,15 +3645,15 @@
         <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>212</v>
+        <v>305</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B138" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -3365,15 +3662,15 @@
         <v>1</v>
       </c>
       <c r="E138" t="s">
-        <v>212</v>
+        <v>305</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B139" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -3382,15 +3679,15 @@
         <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B140" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -3399,15 +3696,15 @@
         <v>1</v>
       </c>
       <c r="E140" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B141" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -3416,15 +3713,15 @@
         <v>1</v>
       </c>
       <c r="E141" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B142" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -3433,15 +3730,15 @@
         <v>1</v>
       </c>
       <c r="E142" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B143" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -3450,15 +3747,15 @@
         <v>1</v>
       </c>
       <c r="E143" t="s">
-        <v>208</v>
+        <v>311</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B144" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -3467,32 +3764,32 @@
         <v>1</v>
       </c>
       <c r="E144" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B145" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E145" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B146" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -3501,15 +3798,15 @@
         <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B147" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -3518,15 +3815,15 @@
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B148" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -3535,15 +3832,15 @@
         <v>1</v>
       </c>
       <c r="E148" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B149" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -3552,15 +3849,15 @@
         <v>1</v>
       </c>
       <c r="E149" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B150" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -3569,15 +3866,15 @@
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B151" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -3586,32 +3883,32 @@
         <v>1</v>
       </c>
       <c r="E151" t="s">
-        <v>210</v>
+        <v>307</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B152" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E152" t="s">
-        <v>209</v>
+        <v>310</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B153" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -3620,24 +3917,1639 @@
         <v>1</v>
       </c>
       <c r="E153" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
+        <v>41</v>
+      </c>
+      <c r="B154" t="s">
+        <v>209</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>41</v>
+      </c>
+      <c r="B155" t="s">
+        <v>210</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>42</v>
+      </c>
+      <c r="B156" t="s">
+        <v>211</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>42</v>
+      </c>
+      <c r="B157" t="s">
+        <v>212</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>42</v>
+      </c>
+      <c r="B158" t="s">
+        <v>213</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>43</v>
+      </c>
+      <c r="B159" t="s">
+        <v>214</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>43</v>
+      </c>
+      <c r="B160" t="s">
+        <v>215</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>43</v>
+      </c>
+      <c r="B161" t="s">
+        <v>216</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+      <c r="E161" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>44</v>
+      </c>
+      <c r="B162" t="s">
+        <v>217</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>44</v>
+      </c>
+      <c r="B163" t="s">
+        <v>218</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>45</v>
+      </c>
+      <c r="B164" t="s">
+        <v>219</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>45</v>
+      </c>
+      <c r="B165" t="s">
+        <v>220</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>46</v>
+      </c>
+      <c r="B166" t="s">
+        <v>221</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>46</v>
+      </c>
+      <c r="B167" t="s">
+        <v>222</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>46</v>
+      </c>
+      <c r="B168" t="s">
+        <v>223</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>47</v>
+      </c>
+      <c r="B169" t="s">
+        <v>224</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>2</v>
+      </c>
+      <c r="E169" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>47</v>
+      </c>
+      <c r="B170" t="s">
+        <v>225</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>47</v>
+      </c>
+      <c r="B171" t="s">
+        <v>226</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>48</v>
+      </c>
+      <c r="B172" t="s">
+        <v>227</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+      <c r="E172" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>48</v>
+      </c>
+      <c r="B173" t="s">
+        <v>228</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>48</v>
+      </c>
+      <c r="B174" t="s">
+        <v>229</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>48</v>
+      </c>
+      <c r="B175" t="s">
+        <v>230</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>48</v>
+      </c>
+      <c r="B176" t="s">
+        <v>231</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>48</v>
+      </c>
+      <c r="B177" t="s">
+        <v>232</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>48</v>
+      </c>
+      <c r="B178" t="s">
+        <v>233</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>48</v>
+      </c>
+      <c r="B179" t="s">
+        <v>234</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+      <c r="E179" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>48</v>
+      </c>
+      <c r="B180" t="s">
+        <v>235</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="E180" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>48</v>
+      </c>
+      <c r="B181" t="s">
+        <v>236</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>2</v>
+      </c>
+      <c r="E181" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>48</v>
+      </c>
+      <c r="B182" t="s">
+        <v>237</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>11</v>
+      </c>
+      <c r="E182" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>48</v>
+      </c>
+      <c r="B183" t="s">
+        <v>238</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+      <c r="E183" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>49</v>
+      </c>
+      <c r="B184" t="s">
+        <v>239</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>49</v>
+      </c>
+      <c r="B185" t="s">
+        <v>240</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>49</v>
+      </c>
+      <c r="B186" t="s">
+        <v>241</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>49</v>
+      </c>
+      <c r="B187" t="s">
+        <v>242</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="E187" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>49</v>
+      </c>
+      <c r="B188" t="s">
+        <v>243</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+      <c r="E188" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>49</v>
+      </c>
+      <c r="B189" t="s">
+        <v>244</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>7</v>
+      </c>
+      <c r="E189" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>49</v>
+      </c>
+      <c r="B190" t="s">
+        <v>245</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+      <c r="E190" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>49</v>
+      </c>
+      <c r="B191" t="s">
+        <v>246</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>76</v>
+      </c>
+      <c r="E191" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>49</v>
+      </c>
+      <c r="B192" t="s">
+        <v>247</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>49</v>
+      </c>
+      <c r="B193" t="s">
+        <v>248</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193">
+        <v>2</v>
+      </c>
+      <c r="E193" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>49</v>
+      </c>
+      <c r="B194" t="s">
+        <v>249</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>50</v>
+      </c>
+      <c r="B195" t="s">
+        <v>250</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>50</v>
+      </c>
+      <c r="B196" t="s">
+        <v>251</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>50</v>
+      </c>
+      <c r="B197" t="s">
+        <v>252</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="E197" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>50</v>
+      </c>
+      <c r="B198" t="s">
+        <v>253</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+      <c r="E198" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>50</v>
+      </c>
+      <c r="B199" t="s">
+        <v>254</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+      <c r="E199" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>50</v>
+      </c>
+      <c r="B200" t="s">
+        <v>255</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+      <c r="E200" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>50</v>
+      </c>
+      <c r="B201" t="s">
+        <v>256</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+      <c r="E201" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>50</v>
+      </c>
+      <c r="B202" t="s">
+        <v>257</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+      <c r="E202" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>50</v>
+      </c>
+      <c r="B203" t="s">
+        <v>258</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>50</v>
+      </c>
+      <c r="B204" t="s">
+        <v>259</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+      <c r="E204" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>50</v>
+      </c>
+      <c r="B205" t="s">
+        <v>260</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+      <c r="E205" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>51</v>
+      </c>
+      <c r="B206" t="s">
+        <v>261</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+      <c r="E206" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>51</v>
+      </c>
+      <c r="B207" t="s">
+        <v>262</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+      <c r="E207" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>51</v>
+      </c>
+      <c r="B208" t="s">
+        <v>263</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+      <c r="E208" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>51</v>
+      </c>
+      <c r="B209" t="s">
+        <v>264</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+      <c r="E209" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>51</v>
+      </c>
+      <c r="B210" t="s">
+        <v>265</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+      <c r="E210" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>51</v>
+      </c>
+      <c r="B211" t="s">
+        <v>266</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>52</v>
+      </c>
+      <c r="E211" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>51</v>
+      </c>
+      <c r="B212" t="s">
+        <v>267</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+      <c r="E212" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>51</v>
+      </c>
+      <c r="B213" t="s">
+        <v>268</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+      <c r="E213" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>52</v>
+      </c>
+      <c r="B214" t="s">
+        <v>269</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>4</v>
+      </c>
+      <c r="E214" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>52</v>
+      </c>
+      <c r="B215" t="s">
+        <v>270</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+      <c r="E215" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>52</v>
+      </c>
+      <c r="B216" t="s">
+        <v>271</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>1</v>
+      </c>
+      <c r="E216" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>52</v>
+      </c>
+      <c r="B217" t="s">
+        <v>272</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+      <c r="E217" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>52</v>
+      </c>
+      <c r="B218" t="s">
+        <v>273</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>53</v>
+      </c>
+      <c r="B219" t="s">
+        <v>274</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+      <c r="E219" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>53</v>
+      </c>
+      <c r="B220" t="s">
+        <v>275</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>53</v>
+      </c>
+      <c r="B221" t="s">
+        <v>276</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>53</v>
+      </c>
+      <c r="B222" t="s">
+        <v>277</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>53</v>
+      </c>
+      <c r="B223" t="s">
+        <v>278</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
         <v>54</v>
       </c>
-      <c r="B154" t="s">
-        <v>207</v>
-      </c>
-      <c r="C154">
-        <v>1</v>
-      </c>
-      <c r="D154">
-        <v>1</v>
-      </c>
-      <c r="E154" t="s">
-        <v>212</v>
+      <c r="B224" t="s">
+        <v>279</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>54</v>
+      </c>
+      <c r="B225" t="s">
+        <v>280</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>54</v>
+      </c>
+      <c r="B226" t="s">
+        <v>281</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>54</v>
+      </c>
+      <c r="B227" t="s">
+        <v>282</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>54</v>
+      </c>
+      <c r="B228" t="s">
+        <v>283</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>54</v>
+      </c>
+      <c r="B229" t="s">
+        <v>284</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>54</v>
+      </c>
+      <c r="B230" t="s">
+        <v>285</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>54</v>
+      </c>
+      <c r="B231" t="s">
+        <v>286</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>54</v>
+      </c>
+      <c r="B232" t="s">
+        <v>287</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>54</v>
+      </c>
+      <c r="B233" t="s">
+        <v>288</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>55</v>
+      </c>
+      <c r="B234" t="s">
+        <v>289</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
+      </c>
+      <c r="E234" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>55</v>
+      </c>
+      <c r="B235" t="s">
+        <v>290</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+      <c r="E235" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>55</v>
+      </c>
+      <c r="B236" t="s">
+        <v>291</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
+      <c r="E236" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>55</v>
+      </c>
+      <c r="B237" t="s">
+        <v>292</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
+      <c r="E237" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>55</v>
+      </c>
+      <c r="B238" t="s">
+        <v>293</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+      <c r="E238" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>55</v>
+      </c>
+      <c r="B239" t="s">
+        <v>294</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+      <c r="E239" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>55</v>
+      </c>
+      <c r="B240" t="s">
+        <v>295</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+      <c r="E240" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>55</v>
+      </c>
+      <c r="B241" t="s">
+        <v>296</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
+      </c>
+      <c r="E241" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>55</v>
+      </c>
+      <c r="B242" t="s">
+        <v>297</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+      <c r="E242" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>55</v>
+      </c>
+      <c r="B243" t="s">
+        <v>298</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+      <c r="E243" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>56</v>
+      </c>
+      <c r="B244" t="s">
+        <v>299</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+      <c r="E244" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" t="s">
+        <v>56</v>
+      </c>
+      <c r="B245" t="s">
+        <v>300</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+      <c r="E245" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
+        <v>56</v>
+      </c>
+      <c r="B246" t="s">
+        <v>301</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+      <c r="E246" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" t="s">
+        <v>56</v>
+      </c>
+      <c r="B247" t="s">
+        <v>302</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+      <c r="E247" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" t="s">
+        <v>56</v>
+      </c>
+      <c r="B248" t="s">
+        <v>303</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+      <c r="E248" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" t="s">
+        <v>56</v>
+      </c>
+      <c r="B249" t="s">
+        <v>304</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+      <c r="E249" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
